--- a/Top 100 GUM.xlsx
+++ b/Top 100 GUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/Research/Merger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B349F8-578C-1549-A7B6-4189E280B6F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B0146E-2CF6-1545-9920-90C35B944C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="firms in the market" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="409">
   <si>
     <t>brand_descr</t>
   </si>
@@ -894,13 +894,367 @@
   </si>
   <si>
     <t>Sherwood Brands, Inc.</t>
+  </si>
+  <si>
+    <t>Firm</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brach%27s</t>
+  </si>
+  <si>
+    <t>Chattanooga, TN</t>
+  </si>
+  <si>
+    <t>Hazleton, PA</t>
+  </si>
+  <si>
+    <t>https://www.thehersheycompany.com/en_us/home/plant-locations.html</t>
+  </si>
+  <si>
+    <t>Chocolate products made by Hershey</t>
+  </si>
+  <si>
+    <t>Union, NJ</t>
+  </si>
+  <si>
+    <t>https://www.smarties.com/our-story/</t>
+  </si>
+  <si>
+    <t>Renamed to Smarties in 2011</t>
+  </si>
+  <si>
+    <t>Newmarket, Ontario, CA</t>
+  </si>
+  <si>
+    <t>Colfax, WI</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Farley%27s_%26_Sathers_Candy_Company</t>
+  </si>
+  <si>
+    <t>A good example of a mess</t>
+  </si>
+  <si>
+    <t>Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Frankford_Candy_%26_Chocolate_Company</t>
+  </si>
+  <si>
+    <t>Hebron, KY</t>
+  </si>
+  <si>
+    <t>https://www.galeriecandy.com/about-us/</t>
+  </si>
+  <si>
+    <t>Dagoba Organic</t>
+  </si>
+  <si>
+    <t>Ashland, OR</t>
+  </si>
+  <si>
+    <t>Scharffen Berger</t>
+  </si>
+  <si>
+    <t>Twizzlers</t>
+  </si>
+  <si>
+    <t>Lancaster, PA</t>
+  </si>
+  <si>
+    <t>Caramello</t>
+  </si>
+  <si>
+    <t>Kit Kat</t>
+  </si>
+  <si>
+    <t>Ice Breakers</t>
+  </si>
+  <si>
+    <t>Memphis, TN</t>
+  </si>
+  <si>
+    <t>Gum</t>
+  </si>
+  <si>
+    <t>Mints</t>
+  </si>
+  <si>
+    <t>Licorice</t>
+  </si>
+  <si>
+    <t>Products with peanuts</t>
+  </si>
+  <si>
+    <t>Stuarts Draft, VA</t>
+  </si>
+  <si>
+    <t>Hershey’s</t>
+  </si>
+  <si>
+    <t>Hershey, PA</t>
+  </si>
+  <si>
+    <t>Janesville, WI</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Impact_Confections</t>
+  </si>
+  <si>
+    <t>Fairfield, CA</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jelly_Belly</t>
+  </si>
+  <si>
+    <t>North Chicago, IL</t>
+  </si>
+  <si>
+    <t>Pleasant Prairie, WI</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>El Paso, TX</t>
+  </si>
+  <si>
+    <t>https://www.mountfranklinfoods.com/facilities</t>
+  </si>
+  <si>
+    <t>Revere, MA</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Necco</t>
+  </si>
+  <si>
+    <t>Everywhere</t>
+  </si>
+  <si>
+    <t>Perfetti Van Melle</t>
+  </si>
+  <si>
+    <t>Erlanger, KY</t>
+  </si>
+  <si>
+    <t>https://www.perfettivanmelle.com/contact-directory/sales-operations/the-americas.html#erlanger</t>
+  </si>
+  <si>
+    <t>Stamford, CT</t>
+  </si>
+  <si>
+    <t>http://www.albertscandy.com/</t>
+  </si>
+  <si>
+    <t>New Brunswick, NJ</t>
+  </si>
+  <si>
+    <t>http://sherwoodbrands.net/about-us/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tootsie_Roll_Industries</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Cambridge, MA</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/108601/000119312508025818/d10k.htm</t>
+  </si>
+  <si>
+    <t>Don Mills, Ontario, Canada</t>
+  </si>
+  <si>
+    <t>Gainesville, Georgia</t>
+  </si>
+  <si>
+    <t>Yorkville, Illinois</t>
+  </si>
+  <si>
+    <t>Methuen, Massachusetts</t>
+  </si>
+  <si>
+    <t>https://candybreak.com/</t>
+  </si>
+  <si>
+    <t>New York City, NY</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/C._Howard%27s_Violet_candies</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>CANDY</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>US/foreign</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>products are manufactured by contract manufacturers</t>
+  </si>
+  <si>
+    <t>Green River, Wyoming</t>
+  </si>
+  <si>
+    <t>Old Fort, Ohio</t>
+  </si>
+  <si>
+    <t>http://investor.churchdwight.com/static-files/a5071293-9fde-4b93-b63e-5eba2261d3b1</t>
+  </si>
+  <si>
+    <t>https://www.dulcesvero.com.mx/corporativo</t>
+  </si>
+  <si>
+    <t>Ewing, New Jersey</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Church_%26_Dwight</t>
+  </si>
+  <si>
+    <t>Green Bay, WI</t>
+  </si>
+  <si>
+    <t>https://eilliens.com/history</t>
+  </si>
+  <si>
+    <t>Akron, NY</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ford_Gum</t>
+  </si>
+  <si>
+    <t>Jersey City, NJ</t>
+  </si>
+  <si>
+    <t>https://www.gumrunners.com/about.html#about</t>
+  </si>
+  <si>
+    <t>Niles, IL</t>
+  </si>
+  <si>
+    <t>https://www.flixcandy.com/</t>
+  </si>
+  <si>
+    <t>North Hollywood, California</t>
+  </si>
+  <si>
+    <t>https://itsdelish.com/pages/about-us</t>
+  </si>
+  <si>
+    <t>Deerfield Beach, FL</t>
+  </si>
+  <si>
+    <t>http://madcroc.com/contact-us/</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Strauss_Group#Since_2007:_Strauss_Group</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>http://www.sweetnfun.com/profile.php</t>
+  </si>
+  <si>
+    <t>Buffalo, New York</t>
+  </si>
+  <si>
+    <t>Toronto, Ontario</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/SweetWorks</t>
+  </si>
+  <si>
+    <t>Scranton, Pennsylvania</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/812076/000081207607000024/form10-k.pdf</t>
+  </si>
+  <si>
+    <t>Providence, RI</t>
+  </si>
+  <si>
+    <t>https://www.gleegum.com/about-us/</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Zeta_Espacial</t>
+  </si>
+  <si>
+    <t>http://www.ausome.com/#hero</t>
+  </si>
+  <si>
+    <t>San Antonio, Texas</t>
+  </si>
+  <si>
+    <t>https://www.casadulceusa.com/</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Philips</t>
+  </si>
+  <si>
+    <t>Danville, Kentucky</t>
+  </si>
+  <si>
+    <t>Dallas, Texas</t>
+  </si>
+  <si>
+    <t>Salina, Kansas</t>
+  </si>
+  <si>
+    <t>Paris, Texas</t>
+  </si>
+  <si>
+    <t>Mountain Top, Pennsylvania</t>
+  </si>
+  <si>
+    <t>El Paso, Texas</t>
+  </si>
+  <si>
+    <t>Ontario, California</t>
+  </si>
+  <si>
+    <t>Memphis, Tennessee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1035,8 +1389,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,6 +1589,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1377,7 +1762,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1388,6 +1773,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1743,300 +2140,1347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF7029-DACB-CC48-9D91-6E50BCF74ACA}">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="27.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="17">
+      <c r="A1" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="34">
+      <c r="A4" s="11" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="51">
+      <c r="A5" s="15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="68">
+      <c r="A6" s="11" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="68">
+      <c r="A7" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="85">
+      <c r="A9" s="11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="119">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="51">
+      <c r="A13" s="15" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customFormat="1" ht="68">
+      <c r="A15" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="E15" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customFormat="1" ht="68">
+      <c r="A16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" ht="153">
+      <c r="A17" s="11" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="E17" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="153">
+      <c r="A18" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="85">
+      <c r="A19" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" customFormat="1">
+      <c r="A20" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="E20" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="68">
+      <c r="A21" s="11" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="51">
+      <c r="A22" s="11" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" ht="102">
+      <c r="A24" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="E24" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="68">
+      <c r="A25" s="15" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" ht="102">
+      <c r="A26" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="E26" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" customFormat="1" ht="68">
+      <c r="A27" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="E27" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="85">
+      <c r="A28" s="15" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" customFormat="1" ht="119">
+      <c r="A29" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="B29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" customFormat="1" ht="119">
+      <c r="A30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" t="s">
+        <v>361</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" customFormat="1" ht="119">
+      <c r="A31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" ht="119">
+      <c r="A32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" t="s">
+        <v>361</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="119">
+      <c r="A33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="119">
+      <c r="A34" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" t="s">
+        <v>361</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="119">
+      <c r="A35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" ht="119">
+      <c r="A36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" t="s">
+        <v>361</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" ht="119">
+      <c r="A37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" ht="119">
+      <c r="A38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" ht="119">
+      <c r="A39" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" ht="51">
+      <c r="A41" s="11" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" customFormat="1" ht="85">
+      <c r="A42" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="E42" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" ht="68">
+      <c r="A44" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" customFormat="1" ht="68">
+      <c r="A45" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="E45" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" customFormat="1" ht="68">
+      <c r="A46" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" customFormat="1" ht="68">
+      <c r="A47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="51">
+      <c r="A48" s="15" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" customFormat="1">
+      <c r="A49" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="E49" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" customFormat="1" ht="85">
+      <c r="A50" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="E50" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" customFormat="1" ht="51">
+      <c r="A52" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="E52" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" customFormat="1">
+      <c r="A53" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="E53" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="11" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" customFormat="1" ht="170">
+      <c r="A55" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" customFormat="1" ht="51">
+      <c r="A56" s="16" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="E56" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" customFormat="1" ht="51">
+      <c r="A57" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" customFormat="1" ht="51">
+      <c r="A58" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="51">
+      <c r="A59" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:8" customFormat="1" ht="51">
+      <c r="A60" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" customFormat="1" ht="51">
+      <c r="A61" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" customFormat="1" ht="51">
+      <c r="A62" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="51">
+      <c r="A63" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" customFormat="1" ht="51">
+      <c r="A64" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="E64" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="10"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="11" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" customFormat="1">
+      <c r="A67" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="E67" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" customFormat="1" ht="68">
+      <c r="A68" s="17" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+      <c r="E68" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="16" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="16" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="10"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" ht="102">
+      <c r="A71" s="16" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" ht="68">
+      <c r="A72" s="16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" ht="68">
+      <c r="A73" s="16" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" ht="68">
+      <c r="A74" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="16" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="16" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="16" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="10"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" customFormat="1" ht="85">
+      <c r="A78" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+      <c r="E78" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" customFormat="1" ht="85">
+      <c r="A79" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" customFormat="1" ht="85">
+      <c r="A80" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="136">
+      <c r="A81" s="16" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G81" s="11">
+        <v>10</v>
+      </c>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" ht="68">
+      <c r="A82" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" customFormat="1" ht="136">
+      <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G83" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" customFormat="1" ht="136">
+      <c r="A84" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" t="s">
+        <v>360</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G84" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" customFormat="1" ht="136">
+      <c r="A85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" t="s">
+        <v>360</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G85" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" customFormat="1" ht="136">
+      <c r="A86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G86" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" customFormat="1" ht="136">
+      <c r="A87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G87" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="68">
+      <c r="A88" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{E367D324-5D3F-4341-9F7C-1E19185A30E4}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{F86C5B13-8556-0245-B277-06CE550A18BF}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{9B239848-A957-D145-82D8-0791DA23F277}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{B48DD444-454E-0345-ADFC-3F6A94C4A93C}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{C273C947-B791-3147-95D1-CC96BFD58CCA}"/>
+    <hyperlink ref="F24" r:id="rId6" xr:uid="{40334C50-050A-2D47-A7FB-2E852B0E3648}"/>
+    <hyperlink ref="F26" r:id="rId7" xr:uid="{F4AE91CA-BB86-474B-B693-B4D09ED95D07}"/>
+    <hyperlink ref="F27" r:id="rId8" xr:uid="{CC900F88-43DB-7649-8776-0567D1C0D94A}"/>
+    <hyperlink ref="F29" r:id="rId9" xr:uid="{5B67E09A-1D23-0B4D-BCD7-9884DE792065}"/>
+    <hyperlink ref="F30" r:id="rId10" xr:uid="{73129A27-050F-534E-93DB-1CA24C4CB671}"/>
+    <hyperlink ref="F31" r:id="rId11" xr:uid="{DB6977F0-4DF8-5C46-AA31-DE79FED329B8}"/>
+    <hyperlink ref="F32" r:id="rId12" xr:uid="{B15733C3-09CE-E34C-8045-956E8A33DE9E}"/>
+    <hyperlink ref="F33" r:id="rId13" xr:uid="{0C2DA2C0-0CB6-D34B-80E1-0D69933688C5}"/>
+    <hyperlink ref="F34" r:id="rId14" xr:uid="{13452FE0-CFD1-ED44-B118-3E5C832F54E2}"/>
+    <hyperlink ref="F35" r:id="rId15" xr:uid="{EE796276-AA4E-F044-B587-6B5C27F62773}"/>
+    <hyperlink ref="F36" r:id="rId16" xr:uid="{20F34265-03B3-304A-A36C-3B277716EB94}"/>
+    <hyperlink ref="F37" r:id="rId17" xr:uid="{FADC98FC-B898-734E-B6AB-EAD74E852FAE}"/>
+    <hyperlink ref="F38" r:id="rId18" xr:uid="{5EE505DC-FC5B-CC46-A231-C0C433A1497D}"/>
+    <hyperlink ref="F39" r:id="rId19" xr:uid="{D5F5AF42-EE04-9847-9DA9-1CFE6D03EADD}"/>
+    <hyperlink ref="F42" r:id="rId20" xr:uid="{DD37E897-4AF2-C446-AFC9-AE2D2668D04B}"/>
+    <hyperlink ref="F45" r:id="rId21" xr:uid="{5B42B65D-A1FD-F045-813B-9B34FD00E612}"/>
+    <hyperlink ref="F46" r:id="rId22" xr:uid="{6D77035D-91EC-DA44-A0F5-FAD7B412CD80}"/>
+    <hyperlink ref="F47" r:id="rId23" xr:uid="{797C5BAE-6E75-7945-ADF3-6B85EF0CF932}"/>
+    <hyperlink ref="F50" r:id="rId24" xr:uid="{4B1D9871-5DB6-9A43-8529-CBDAC12E4BE1}"/>
+    <hyperlink ref="F52" r:id="rId25" xr:uid="{74D6B24C-87AA-3942-ADC8-85E506BF51A6}"/>
+    <hyperlink ref="F55" r:id="rId26" location="erlanger" xr:uid="{7C902504-1571-AB49-90F3-269CF2451A70}"/>
+    <hyperlink ref="F64" r:id="rId27" xr:uid="{C780B7FC-5541-A848-8DA6-E2A38F34C195}"/>
+    <hyperlink ref="F68" r:id="rId28" xr:uid="{A126A520-C71A-C64F-89C1-979BE60AC74B}"/>
+    <hyperlink ref="F78" r:id="rId29" xr:uid="{968E1F1A-6BC9-0C4B-BA64-1ABDCD7D2213}"/>
+    <hyperlink ref="F79" r:id="rId30" xr:uid="{16BCFF1B-0E55-E14A-B8DA-70C247B4EBCE}"/>
+    <hyperlink ref="F80" r:id="rId31" xr:uid="{9DCC42EE-ACE8-2343-BB92-88F26704B01B}"/>
+    <hyperlink ref="F83" r:id="rId32" xr:uid="{F94C97C5-9539-A845-A256-7F05E2C75172}"/>
+    <hyperlink ref="F84" r:id="rId33" xr:uid="{6FB30D17-9D09-9A4E-A6A8-C62F55390137}"/>
+    <hyperlink ref="F85" r:id="rId34" xr:uid="{9DA50389-BA9B-3F4C-9607-B25368D94E3F}"/>
+    <hyperlink ref="F86" r:id="rId35" xr:uid="{F3E6D108-26DF-7842-88D6-2417F00B4F4B}"/>
+    <hyperlink ref="F87" r:id="rId36" xr:uid="{8CA4CA98-CD1F-B043-97A6-2F9E53301BFA}"/>
+    <hyperlink ref="F4" r:id="rId37" xr:uid="{571E10F9-1FC1-2E42-B475-CEFCCBBCD1DA}"/>
+    <hyperlink ref="F9" r:id="rId38" xr:uid="{04A05BB1-33A8-3B4B-888E-31A7D3AFC967}"/>
+    <hyperlink ref="F17" r:id="rId39" xr:uid="{90B326B9-4257-344F-A688-FCD6EA4AF536}"/>
+    <hyperlink ref="F18" r:id="rId40" xr:uid="{A19628D3-3B7A-7143-8A7D-4D75EEB9B278}"/>
+    <hyperlink ref="F21" r:id="rId41" xr:uid="{21806CD8-5B82-BD4A-BC36-9D5D30A3D7DE}"/>
+    <hyperlink ref="F19" r:id="rId42" xr:uid="{37D0DA25-8D8C-D044-8EBA-55EF3EE59783}"/>
+    <hyperlink ref="F22" r:id="rId43" xr:uid="{78633509-95FB-3B43-9A07-890992FB8944}"/>
+    <hyperlink ref="F25" r:id="rId44" xr:uid="{354322C7-59CC-9344-B760-11B8B600E747}"/>
+    <hyperlink ref="F28" r:id="rId45" location="about" xr:uid="{425EC0D4-6565-4345-AB1F-9FB2B66D4B39}"/>
+    <hyperlink ref="F41" r:id="rId46" xr:uid="{8BFB04FE-9A3D-9F4B-B309-7B50F276C779}"/>
+    <hyperlink ref="F44" r:id="rId47" xr:uid="{880EF057-28F7-F543-A713-DC7C3DE7AB9A}"/>
+    <hyperlink ref="F71" r:id="rId48" location="Since_2007:_Strauss_Group" xr:uid="{E713A8A5-A4F5-2448-9B65-C7F308794050}"/>
+    <hyperlink ref="F72" r:id="rId49" xr:uid="{9DF8237F-65A1-BE43-B338-76491C74A7B1}"/>
+    <hyperlink ref="F73" r:id="rId50" xr:uid="{5A2E8ED0-3CAB-3548-9523-AE177D94BE0A}"/>
+    <hyperlink ref="F74" r:id="rId51" xr:uid="{453D9930-6030-504A-BF72-2E6FC752480B}"/>
+    <hyperlink ref="F81" r:id="rId52" xr:uid="{71E038EF-ADD7-484E-A123-747C99BAC01E}"/>
+    <hyperlink ref="F82" r:id="rId53" xr:uid="{862B0556-DE2E-5F41-BF21-C4EA09684167}"/>
+    <hyperlink ref="F88" r:id="rId54" xr:uid="{18B10A20-AFEB-B241-9C48-A80D2CB9C177}"/>
+    <hyperlink ref="F5" r:id="rId55" location="hero" xr:uid="{A5674C36-E1FC-5749-A3BA-C5E4E0671D2A}"/>
+    <hyperlink ref="F13" r:id="rId56" xr:uid="{718F73B0-A445-6A41-87C0-5052B5E28BE7}"/>
+    <hyperlink ref="F48" r:id="rId57" xr:uid="{952CB0CC-9D76-2E4E-BC21-D9CFF5C5EFD5}"/>
+    <hyperlink ref="F56" r:id="rId58" xr:uid="{329746A0-5276-4841-9B15-0E7088CE486D}"/>
+    <hyperlink ref="F57:F63" r:id="rId59" display="https://en.wikipedia.org/wiki/Philips" xr:uid="{070B6D8E-0069-1D48-A88C-5C07C4911082}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2045,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K232"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
